--- a/02_编码/机票查询_无人值守/res/2020-11-26_广州_北京_Uibot.xlsx
+++ b/02_编码/机票查询_无人值守/res/2020-11-26_广州_北京_Uibot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiBot WorkSpace\独白KOY工作室_高磊磊_17610158976\02_编码\机票查询_无人值守\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFD612-E254-41AB-A957-64A3156A76B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47733CD5-6F17-4DD0-981E-B5DEFA4734FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,16 +846,16 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6">
-        <v>1210</v>
+        <v>1350</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>16</v>
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -872,31 +872,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" s="6">
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -904,28 +904,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G6" s="6">
-        <v>1400</v>
+        <v>1580</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>45</v>
